--- a/biology/Médecine/1942_en_santé_et_médecine/1942_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1942_en_santé_et_médecine/1942_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1942_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1942_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1942 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1942_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1942_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Max Delbrück et Salvador Luria démontrent que la résistance bactérienne des virus est causé par des mutations aléatoires et non par un changement d'adaptation.
 Herta Oberheuser et Karl Gebhardt, tous deux médecins, arrivent au camp de concentration de Ravensbrück pour y mener des expériences sur les prisonnières.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1942_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1942_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>25 juillet : Mohamed Gueddiche (mort en 2020), médecin tunisien.
 1er août : Jacques Leibowitch (mort en 2020), médecin français, chercheur reconnu pour ses contributions à la connaissance du VIH, du SIDA et de son traitement.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1942_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1942_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
